--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/1 Hiraon Branch Khal/Hiron_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/1 Hiraon Branch Khal/Hiron_Dataprep_Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39D105-681E-45B2-A566-0F93340C4786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2F2C8-2E92-4473-BB44-D0B7F5490913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>29/11/2024</t>
-  </si>
-  <si>
-    <t>SW_HMP_01</t>
   </si>
   <si>
     <t>Data</t>
@@ -441,6 +435,9 @@
   <si>
     <t>Re-excavation of Hiron Branch  khal from km. 0.000 to km. 0.678 in polder -2  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
   </si>
+  <si>
+    <t>TP_KEX_10</t>
+  </si>
 </sst>
 </file>
 
@@ -744,13 +741,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -22788,8 +22785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23194,7 +23191,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -23243,13 +23240,13 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="53">
+      <c r="D3" s="52">
         <v>0</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="52"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
@@ -23259,19 +23256,19 @@
       <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="I4" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="I4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
@@ -23284,7 +23281,7 @@
         <v>2.6309999999999998</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
@@ -23804,7 +23801,7 @@
         <v>2.706</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="45">
         <f t="shared" si="0"/>
@@ -23849,16 +23846,16 @@
       <c r="E18" s="48"/>
       <c r="F18" s="47"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="52"/>
+      <c r="H18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="54"/>
       <c r="J18" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L18" s="47" t="e">
         <f>#REF!</f>
@@ -23874,13 +23871,13 @@
     </row>
     <row r="19" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>0.1</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="52"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
@@ -23890,22 +23887,22 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -24477,7 +24474,7 @@
         <v>2.609</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" s="45">
         <f t="shared" si="8"/>
@@ -24509,16 +24506,16 @@
       <c r="E35" s="48"/>
       <c r="F35" s="47"/>
       <c r="G35" s="45"/>
-      <c r="H35" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="52"/>
+      <c r="H35" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="54"/>
       <c r="J35" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K35" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L35" s="47" t="e">
         <f>#REF!</f>
@@ -24534,13 +24531,13 @@
     </row>
     <row r="36" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53">
+      <c r="D36" s="52">
         <v>0.2</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="52"/>
       <c r="J36" s="48"/>
       <c r="K36" s="48"/>
       <c r="L36" s="48"/>
@@ -24550,22 +24547,22 @@
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
@@ -24578,7 +24575,7 @@
         <v>1.581</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
@@ -24984,7 +24981,7 @@
         <v>2.0510000000000002</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E49" s="45">
         <f t="shared" si="16"/>
@@ -25254,16 +25251,16 @@
       <c r="E61" s="48"/>
       <c r="F61" s="47"/>
       <c r="G61" s="45"/>
-      <c r="H61" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I61" s="52"/>
+      <c r="H61" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="54"/>
       <c r="J61" s="45">
         <f>G60</f>
         <v>25.436000000000007</v>
       </c>
       <c r="K61" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L61" s="47">
         <f>M58</f>
@@ -25298,13 +25295,13 @@
     </row>
     <row r="63" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="17"/>
-      <c r="D63" s="53">
+      <c r="D63" s="52">
         <v>0.3</v>
       </c>
-      <c r="E63" s="53"/>
+      <c r="E63" s="52"/>
       <c r="J63" s="48"/>
       <c r="K63" s="48"/>
       <c r="L63" s="48"/>
@@ -25863,7 +25860,7 @@
         <v>2.48</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E78" s="45">
         <f t="shared" si="24"/>
@@ -25923,13 +25920,13 @@
     </row>
     <row r="80" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B80" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" s="17"/>
-      <c r="D80" s="53">
+      <c r="D80" s="52">
         <v>0.4</v>
       </c>
-      <c r="E80" s="53"/>
+      <c r="E80" s="52"/>
       <c r="J80" s="48"/>
       <c r="K80" s="48"/>
       <c r="L80" s="48"/>
@@ -25946,7 +25943,7 @@
         <v>2.54</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E81" s="47"/>
       <c r="F81" s="47"/>
@@ -26396,7 +26393,7 @@
         <v>3.5329999999999999</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E92" s="45">
         <f t="shared" si="35"/>
@@ -26442,13 +26439,13 @@
     </row>
     <row r="94" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" s="17"/>
-      <c r="D94" s="53">
+      <c r="D94" s="52">
         <v>0.5</v>
       </c>
-      <c r="E94" s="53"/>
+      <c r="E94" s="52"/>
       <c r="J94" s="48"/>
       <c r="K94" s="48"/>
       <c r="L94" s="48"/>
@@ -26465,7 +26462,7 @@
         <v>2.8980000000000001</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E95" s="47"/>
       <c r="F95" s="47"/>
@@ -26985,7 +26982,7 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E108" s="45">
         <f t="shared" si="38"/>
@@ -27030,16 +27027,16 @@
       <c r="E109" s="48"/>
       <c r="F109" s="47"/>
       <c r="G109" s="45"/>
-      <c r="H109" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I109" s="52"/>
+      <c r="H109" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109" s="54"/>
       <c r="J109" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K109" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L109" s="47" t="e">
         <f>#REF!</f>
@@ -27055,13 +27052,13 @@
     </row>
     <row r="110" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C110" s="17"/>
-      <c r="D110" s="53">
+      <c r="D110" s="52">
         <v>0.6</v>
       </c>
-      <c r="E110" s="53"/>
+      <c r="E110" s="52"/>
       <c r="J110" s="48"/>
       <c r="K110" s="48"/>
       <c r="L110" s="48"/>
@@ -27078,7 +27075,7 @@
         <v>2.5409999999999999</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E111" s="47"/>
       <c r="F111" s="47"/>
@@ -27642,7 +27639,7 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E125" s="45">
         <f t="shared" si="49"/>
@@ -27691,16 +27688,16 @@
       <c r="E127" s="48"/>
       <c r="F127" s="47"/>
       <c r="G127" s="45"/>
-      <c r="H127" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I127" s="52"/>
+      <c r="H127" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127" s="54"/>
       <c r="J127" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K127" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L127" s="47" t="e">
         <f>#REF!</f>
@@ -27716,13 +27713,13 @@
     </row>
     <row r="128" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B128" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C128" s="17"/>
-      <c r="D128" s="53">
+      <c r="D128" s="52">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E128" s="53"/>
+      <c r="E128" s="52"/>
       <c r="J128" s="48"/>
       <c r="K128" s="48"/>
       <c r="L128" s="48"/>
@@ -27732,17 +27729,17 @@
       <c r="P128" s="22"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="54"/>
-      <c r="L129" s="54"/>
-      <c r="M129" s="54"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="53"/>
+      <c r="K129" s="53"/>
+      <c r="L129" s="53"/>
+      <c r="M129" s="53"/>
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
       <c r="P129" s="26"/>
@@ -27755,7 +27752,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
@@ -28293,7 +28290,7 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E144" s="45">
         <f t="shared" si="52"/>
@@ -28516,8 +28513,8 @@
       <c r="E153" s="48"/>
       <c r="F153" s="47"/>
       <c r="G153" s="45"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="54"/>
       <c r="J153" s="45"/>
       <c r="K153" s="45"/>
       <c r="L153" s="47">
@@ -28539,16 +28536,16 @@
       <c r="E154" s="45"/>
       <c r="F154" s="47"/>
       <c r="G154" s="45"/>
-      <c r="H154" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I154" s="52"/>
+      <c r="H154" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154" s="54"/>
       <c r="J154" s="45">
         <f>G152</f>
         <v>27.2195</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L154" s="47">
         <f>M153</f>
@@ -28586,8 +28583,8 @@
       <c r="E156" s="48"/>
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
-      <c r="H156" s="53"/>
-      <c r="I156" s="53"/>
+      <c r="H156" s="52"/>
+      <c r="I156" s="52"/>
       <c r="J156" s="48"/>
       <c r="K156" s="48"/>
       <c r="L156" s="48"/>
@@ -28597,17 +28594,17 @@
       <c r="P156" s="22"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B157" s="54"/>
-      <c r="C157" s="54"/>
-      <c r="D157" s="54"/>
-      <c r="E157" s="54"/>
-      <c r="F157" s="54"/>
-      <c r="G157" s="54"/>
-      <c r="I157" s="54"/>
-      <c r="J157" s="54"/>
-      <c r="K157" s="54"/>
-      <c r="L157" s="54"/>
-      <c r="M157" s="54"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
+      <c r="I157" s="53"/>
+      <c r="J157" s="53"/>
+      <c r="K157" s="53"/>
+      <c r="L157" s="53"/>
+      <c r="M157" s="53"/>
       <c r="N157" s="23"/>
       <c r="O157" s="23"/>
       <c r="P157" s="26"/>
@@ -29027,8 +29024,8 @@
       <c r="E181" s="48"/>
       <c r="F181" s="47"/>
       <c r="G181" s="45"/>
-      <c r="H181" s="52"/>
-      <c r="I181" s="52"/>
+      <c r="H181" s="54"/>
+      <c r="I181" s="54"/>
       <c r="J181" s="45"/>
       <c r="K181" s="45"/>
       <c r="L181" s="47"/>
@@ -29044,8 +29041,8 @@
       <c r="E182" s="48"/>
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
-      <c r="H182" s="53"/>
-      <c r="I182" s="53"/>
+      <c r="H182" s="52"/>
+      <c r="I182" s="52"/>
       <c r="J182" s="48"/>
       <c r="K182" s="48"/>
       <c r="L182" s="48"/>
@@ -29055,17 +29052,17 @@
       <c r="P182" s="22"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B183" s="54"/>
-      <c r="C183" s="54"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="I183" s="54"/>
-      <c r="J183" s="54"/>
-      <c r="K183" s="54"/>
-      <c r="L183" s="54"/>
-      <c r="M183" s="54"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="53"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="53"/>
+      <c r="I183" s="53"/>
+      <c r="J183" s="53"/>
+      <c r="K183" s="53"/>
+      <c r="L183" s="53"/>
+      <c r="M183" s="53"/>
       <c r="N183" s="23"/>
       <c r="O183" s="23"/>
       <c r="P183" s="26"/>
@@ -29866,21 +29863,6 @@
     <row r="861" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="I157:M157"/>
     <mergeCell ref="H181:I181"/>
     <mergeCell ref="H182:I182"/>
     <mergeCell ref="B183:G183"/>
@@ -29897,6 +29879,21 @@
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="B129:G129"/>
     <mergeCell ref="I129:M129"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="I157:M157"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -29908,8 +29905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -29932,7 +29929,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -29952,8 +29949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30001,7 +29998,7 @@
         <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>20</v>
@@ -30010,7 +30007,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -30028,7 +30025,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3">
         <v>0.40200000000000002</v>
@@ -30048,7 +30045,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -30066,7 +30063,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H3" s="3">
         <v>0.40200000000000002</v>
@@ -30086,7 +30083,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -30104,7 +30101,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" s="3">
         <v>0.40200000000000002</v>
@@ -30124,7 +30121,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -30142,7 +30139,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="3">
         <v>0.40200000000000002</v>
@@ -30162,7 +30159,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3">
         <v>400</v>
@@ -30180,7 +30177,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H6" s="3">
         <v>0.40200000000000002</v>
@@ -30200,7 +30197,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="3">
         <v>500</v>
@@ -30218,7 +30215,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H7" s="3">
         <v>0.40200000000000002</v>
@@ -30238,7 +30235,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -30256,7 +30253,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H8" s="3">
         <v>0.40200000000000002</v>
@@ -30276,7 +30273,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3">
         <v>678</v>
@@ -30294,7 +30291,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H9" s="3">
         <v>0.40200000000000002</v>
@@ -30372,8 +30369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -30399,7 +30396,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>12</v>
@@ -30416,13 +30413,13 @@
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="6">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -30431,13 +30428,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>28</v>
+      <c r="H2" s="8">
+        <v>45608</v>
       </c>
     </row>
   </sheetData>
@@ -30463,18 +30460,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -30482,7 +30479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -30490,7 +30487,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -30498,7 +30495,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -30506,15 +30503,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -30522,7 +30519,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -30530,7 +30527,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -30538,7 +30535,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -30546,7 +30543,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -30554,7 +30551,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30562,7 +30559,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -30570,7 +30567,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -30578,7 +30575,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -30586,7 +30583,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -30594,7 +30591,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30602,7 +30599,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30610,7 +30607,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30618,7 +30615,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30626,7 +30623,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30634,7 +30631,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30642,7 +30639,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -30650,7 +30647,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -30676,82 +30673,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -30788,18 +30785,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30807,7 +30804,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30815,7 +30812,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30823,7 +30820,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30831,7 +30828,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -30839,7 +30836,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -30847,7 +30844,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -30855,7 +30852,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30863,10 +30860,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -30874,7 +30871,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30882,7 +30879,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30890,7 +30887,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30898,7 +30895,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -30906,31 +30903,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30938,7 +30935,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30946,7 +30943,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -30954,15 +30951,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -30970,7 +30967,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -30978,7 +30975,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30986,7 +30983,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -30994,7 +30991,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -31002,7 +30999,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31010,7 +31007,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/1 Hiraon Branch Khal/Hiron_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/1 Hiraon Branch Khal/Hiron_Dataprep_Input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2F2C8-2E92-4473-BB44-D0B7F5490913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95C9A27-1163-455C-89BE-A3B9433EB510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -741,13 +741,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -23243,10 +23243,10 @@
         <v>73</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="52">
+      <c r="D3" s="53">
         <v>0</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
@@ -23256,19 +23256,19 @@
       <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="I4" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
@@ -23846,10 +23846,10 @@
       <c r="E18" s="48"/>
       <c r="F18" s="47"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="54"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -23874,10 +23874,10 @@
         <v>73</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="52">
+      <c r="D19" s="53">
         <v>0.1</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="53"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
@@ -23887,22 +23887,22 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -24506,10 +24506,10 @@
       <c r="E35" s="48"/>
       <c r="F35" s="47"/>
       <c r="G35" s="45"/>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="54"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -24534,10 +24534,10 @@
         <v>73</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="52">
+      <c r="D36" s="53">
         <v>0.2</v>
       </c>
-      <c r="E36" s="52"/>
+      <c r="E36" s="53"/>
       <c r="J36" s="48"/>
       <c r="K36" s="48"/>
       <c r="L36" s="48"/>
@@ -24547,22 +24547,22 @@
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
@@ -25251,10 +25251,10 @@
       <c r="E61" s="48"/>
       <c r="F61" s="47"/>
       <c r="G61" s="45"/>
-      <c r="H61" s="54" t="s">
+      <c r="H61" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I61" s="54"/>
+      <c r="I61" s="52"/>
       <c r="J61" s="45">
         <f>G60</f>
         <v>25.436000000000007</v>
@@ -25298,10 +25298,10 @@
         <v>73</v>
       </c>
       <c r="C63" s="17"/>
-      <c r="D63" s="52">
+      <c r="D63" s="53">
         <v>0.3</v>
       </c>
-      <c r="E63" s="52"/>
+      <c r="E63" s="53"/>
       <c r="J63" s="48"/>
       <c r="K63" s="48"/>
       <c r="L63" s="48"/>
@@ -25923,10 +25923,10 @@
         <v>73</v>
       </c>
       <c r="C80" s="17"/>
-      <c r="D80" s="52">
+      <c r="D80" s="53">
         <v>0.4</v>
       </c>
-      <c r="E80" s="52"/>
+      <c r="E80" s="53"/>
       <c r="J80" s="48"/>
       <c r="K80" s="48"/>
       <c r="L80" s="48"/>
@@ -26442,10 +26442,10 @@
         <v>73</v>
       </c>
       <c r="C94" s="17"/>
-      <c r="D94" s="52">
+      <c r="D94" s="53">
         <v>0.5</v>
       </c>
-      <c r="E94" s="52"/>
+      <c r="E94" s="53"/>
       <c r="J94" s="48"/>
       <c r="K94" s="48"/>
       <c r="L94" s="48"/>
@@ -27027,10 +27027,10 @@
       <c r="E109" s="48"/>
       <c r="F109" s="47"/>
       <c r="G109" s="45"/>
-      <c r="H109" s="54" t="s">
+      <c r="H109" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I109" s="54"/>
+      <c r="I109" s="52"/>
       <c r="J109" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -27055,10 +27055,10 @@
         <v>73</v>
       </c>
       <c r="C110" s="17"/>
-      <c r="D110" s="52">
+      <c r="D110" s="53">
         <v>0.6</v>
       </c>
-      <c r="E110" s="52"/>
+      <c r="E110" s="53"/>
       <c r="J110" s="48"/>
       <c r="K110" s="48"/>
       <c r="L110" s="48"/>
@@ -27688,10 +27688,10 @@
       <c r="E127" s="48"/>
       <c r="F127" s="47"/>
       <c r="G127" s="45"/>
-      <c r="H127" s="54" t="s">
+      <c r="H127" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I127" s="54"/>
+      <c r="I127" s="52"/>
       <c r="J127" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -27716,10 +27716,10 @@
         <v>73</v>
       </c>
       <c r="C128" s="17"/>
-      <c r="D128" s="52">
+      <c r="D128" s="53">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E128" s="52"/>
+      <c r="E128" s="53"/>
       <c r="J128" s="48"/>
       <c r="K128" s="48"/>
       <c r="L128" s="48"/>
@@ -27729,17 +27729,17 @@
       <c r="P128" s="22"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B129" s="53"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="53"/>
-      <c r="M129" s="53"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="54"/>
+      <c r="M129" s="54"/>
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
       <c r="P129" s="26"/>
@@ -28513,8 +28513,8 @@
       <c r="E153" s="48"/>
       <c r="F153" s="47"/>
       <c r="G153" s="45"/>
-      <c r="H153" s="54"/>
-      <c r="I153" s="54"/>
+      <c r="H153" s="52"/>
+      <c r="I153" s="52"/>
       <c r="J153" s="45"/>
       <c r="K153" s="45"/>
       <c r="L153" s="47">
@@ -28536,10 +28536,10 @@
       <c r="E154" s="45"/>
       <c r="F154" s="47"/>
       <c r="G154" s="45"/>
-      <c r="H154" s="54" t="s">
+      <c r="H154" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I154" s="54"/>
+      <c r="I154" s="52"/>
       <c r="J154" s="45">
         <f>G152</f>
         <v>27.2195</v>
@@ -28583,8 +28583,8 @@
       <c r="E156" s="48"/>
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
-      <c r="H156" s="52"/>
-      <c r="I156" s="52"/>
+      <c r="H156" s="53"/>
+      <c r="I156" s="53"/>
       <c r="J156" s="48"/>
       <c r="K156" s="48"/>
       <c r="L156" s="48"/>
@@ -28594,17 +28594,17 @@
       <c r="P156" s="22"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B157" s="53"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="53"/>
-      <c r="E157" s="53"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="53"/>
-      <c r="I157" s="53"/>
-      <c r="J157" s="53"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="53"/>
-      <c r="M157" s="53"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="54"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
+      <c r="I157" s="54"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="54"/>
       <c r="N157" s="23"/>
       <c r="O157" s="23"/>
       <c r="P157" s="26"/>
@@ -29024,8 +29024,8 @@
       <c r="E181" s="48"/>
       <c r="F181" s="47"/>
       <c r="G181" s="45"/>
-      <c r="H181" s="54"/>
-      <c r="I181" s="54"/>
+      <c r="H181" s="52"/>
+      <c r="I181" s="52"/>
       <c r="J181" s="45"/>
       <c r="K181" s="45"/>
       <c r="L181" s="47"/>
@@ -29041,8 +29041,8 @@
       <c r="E182" s="48"/>
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
-      <c r="H182" s="52"/>
-      <c r="I182" s="52"/>
+      <c r="H182" s="53"/>
+      <c r="I182" s="53"/>
       <c r="J182" s="48"/>
       <c r="K182" s="48"/>
       <c r="L182" s="48"/>
@@ -29052,17 +29052,17 @@
       <c r="P182" s="22"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B183" s="53"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="53"/>
-      <c r="E183" s="53"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="53"/>
-      <c r="I183" s="53"/>
-      <c r="J183" s="53"/>
-      <c r="K183" s="53"/>
-      <c r="L183" s="53"/>
-      <c r="M183" s="53"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="54"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="54"/>
+      <c r="I183" s="54"/>
+      <c r="J183" s="54"/>
+      <c r="K183" s="54"/>
+      <c r="L183" s="54"/>
+      <c r="M183" s="54"/>
       <c r="N183" s="23"/>
       <c r="O183" s="23"/>
       <c r="P183" s="26"/>
@@ -29863,6 +29863,21 @@
     <row r="861" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="I157:M157"/>
     <mergeCell ref="H181:I181"/>
     <mergeCell ref="H182:I182"/>
     <mergeCell ref="B183:G183"/>
@@ -29879,21 +29894,6 @@
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="B129:G129"/>
     <mergeCell ref="I129:M129"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="I157:M157"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -29905,8 +29905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -29949,7 +29949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
